--- a/assignment1/analysis/graphs.xlsx
+++ b/assignment1/analysis/graphs.xlsx
@@ -3270,7 +3270,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
